--- a/reports/timesheet.xlsx
+++ b/reports/timesheet.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,8 +499,6 @@
           <t>No name</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
           <t>Something</t>
@@ -525,6 +523,14 @@
         <is>
           <t>fulltime</t>
         </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>C12</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -548,8 +554,6 @@
           <t>Backend for Customer 2</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>Backend creation</t>
@@ -574,6 +578,14 @@
         <is>
           <t>fulltime</t>
         </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -597,8 +609,6 @@
           <t>Backend mantaining for Customer 2</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>Backend mantaining</t>
@@ -646,8 +656,6 @@
           <t>No name</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
           <t>Something</t>
@@ -672,6 +680,14 @@
         <is>
           <t>fulltime</t>
         </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>C22</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
